--- a/data/trans_orig/P14A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65DEB336-57B1-49B9-8FB9-7C50BB09B71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF1ECF5E-79C3-4FD1-92D3-552CC4868CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A1B2415E-46E1-4B6C-B230-B0C783831E4C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF5B098B-8431-48B9-B25E-C3CC6816E681}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="152">
   <si>
     <t>Población que recibe medicación o terapia por úlcera de estómago en 2012 (Tasa respuesta: 1,17%)</t>
   </si>
@@ -138,37 +138,37 @@
     <t>73,55%</t>
   </si>
   <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
   </si>
   <si>
     <t>83,22%</t>
   </si>
   <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
   </si>
   <si>
     <t>26,45%</t>
   </si>
   <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
   </si>
   <si>
     <t>16,78%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -177,43 +177,43 @@
     <t>59,42%</t>
   </si>
   <si>
-    <t>18,79%</t>
+    <t>18,84%</t>
   </si>
   <si>
     <t>80,39%</t>
   </si>
   <si>
-    <t>49,47%</t>
+    <t>40,94%</t>
   </si>
   <si>
     <t>73,38%</t>
   </si>
   <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
   </si>
   <si>
     <t>40,58%</t>
   </si>
   <si>
-    <t>81,21%</t>
+    <t>81,16%</t>
   </si>
   <si>
     <t>19,61%</t>
   </si>
   <si>
-    <t>50,53%</t>
+    <t>59,06%</t>
   </si>
   <si>
     <t>26,62%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -222,103 +222,103 @@
     <t>65,75%</t>
   </si>
   <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
   </si>
   <si>
     <t>87,9%</t>
   </si>
   <si>
-    <t>62,57%</t>
+    <t>62,64%</t>
   </si>
   <si>
     <t>76,91%</t>
   </si>
   <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>34,25%</t>
   </si>
   <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
   </si>
   <si>
     <t>12,1%</t>
   </si>
   <si>
-    <t>37,43%</t>
+    <t>37,36%</t>
   </si>
   <si>
     <t>23,09%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
   </si>
   <si>
     <t>69,37%</t>
   </si>
   <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
   </si>
   <si>
     <t>86,14%</t>
   </si>
   <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
   </si>
   <si>
     <t>77,91%</t>
   </si>
   <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
   </si>
   <si>
     <t>30,63%</t>
   </si>
   <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
   </si>
   <si>
     <t>13,86%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -366,7 +366,7 @@
     <t>58,21%</t>
   </si>
   <si>
-    <t>13,11%</t>
+    <t>15,19%</t>
   </si>
   <si>
     <t>61,06%</t>
@@ -378,7 +378,7 @@
     <t>41,79%</t>
   </si>
   <si>
-    <t>86,89%</t>
+    <t>84,81%</t>
   </si>
   <si>
     <t>31,98%</t>
@@ -387,13 +387,16 @@
     <t>87,21%</t>
   </si>
   <si>
+    <t>39,87%</t>
+  </si>
+  <si>
     <t>71,87%</t>
   </si>
   <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>68,02%</t>
@@ -402,91 +405,94 @@
     <t>12,79%</t>
   </si>
   <si>
+    <t>60,13%</t>
+  </si>
+  <si>
     <t>28,13%</t>
   </si>
   <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
   </si>
   <si>
     <t>87,58%</t>
   </si>
   <si>
-    <t>66,18%</t>
+    <t>59,64%</t>
   </si>
   <si>
     <t>90,49%</t>
   </si>
   <si>
-    <t>65,44%</t>
+    <t>69,95%</t>
   </si>
   <si>
     <t>12,42%</t>
   </si>
   <si>
-    <t>33,82%</t>
+    <t>40,36%</t>
   </si>
   <si>
     <t>9,51%</t>
   </si>
   <si>
-    <t>34,56%</t>
+    <t>30,05%</t>
   </si>
   <si>
     <t>66,69%</t>
   </si>
   <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
   </si>
   <si>
     <t>85,53%</t>
   </si>
   <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
   </si>
   <si>
     <t>79,73%</t>
   </si>
   <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
   </si>
   <si>
     <t>33,31%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
   </si>
   <si>
     <t>14,47%</t>
   </si>
   <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
   </si>
   <si>
     <t>20,27%</t>
   </si>
   <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
   </si>
 </sst>
 </file>
@@ -898,7 +904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5EF313-318D-4224-A0E7-31CD1257B893}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77C5EC7-3725-4954-8AE8-D6641C8C7302}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2111,7 +2117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5109F5AD-4487-4CD8-A3C9-341EDAEE15E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0E0DAC-2AD6-4FB2-A2FD-A5C2118A2F3E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2867,7 +2873,7 @@
         <v>115</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -2879,13 +2885,13 @@
         <v>8627</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,7 +2906,7 @@
         <v>2267</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>14</v>
@@ -2915,13 +2921,13 @@
         <v>1109</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -2930,13 +2936,13 @@
         <v>3376</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,10 +3025,10 @@
         <v>13314</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -3034,10 +3040,10 @@
         <v>17974</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -3070,13 +3076,13 @@
         <v>1889</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3085,13 +3091,13 @@
         <v>1889</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3165,13 @@
         <v>10169</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -3174,13 +3180,13 @@
         <v>29309</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -3189,13 +3195,13 @@
         <v>39479</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3216,13 @@
         <v>5080</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3225,13 +3231,13 @@
         <v>4957</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -3240,13 +3246,13 @@
         <v>10036</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A06-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF1ECF5E-79C3-4FD1-92D3-552CC4868CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE50B72E-7A2E-4D6C-B2BE-926CDA00767D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF5B098B-8431-48B9-B25E-C3CC6816E681}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C98FE8A6-9F93-4779-86DB-2827F93FB2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="154">
   <si>
     <t>Población que recibe medicación o terapia por úlcera de estómago en 2012 (Tasa respuesta: 1,17%)</t>
   </si>
@@ -138,37 +138,37 @@
     <t>73,55%</t>
   </si>
   <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
   </si>
   <si>
     <t>83,22%</t>
   </si>
   <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
   <si>
     <t>26,45%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
   </si>
   <si>
     <t>16,78%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -177,43 +177,43 @@
     <t>59,42%</t>
   </si>
   <si>
-    <t>18,84%</t>
+    <t>18,55%</t>
   </si>
   <si>
     <t>80,39%</t>
   </si>
   <si>
-    <t>40,94%</t>
+    <t>49,67%</t>
   </si>
   <si>
     <t>73,38%</t>
   </si>
   <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
   <si>
     <t>40,58%</t>
   </si>
   <si>
-    <t>81,16%</t>
+    <t>81,45%</t>
   </si>
   <si>
     <t>19,61%</t>
   </si>
   <si>
-    <t>59,06%</t>
+    <t>50,33%</t>
   </si>
   <si>
     <t>26,62%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -222,109 +222,109 @@
     <t>65,75%</t>
   </si>
   <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
   </si>
   <si>
     <t>87,9%</t>
   </si>
   <si>
-    <t>62,64%</t>
+    <t>62,78%</t>
   </si>
   <si>
     <t>76,91%</t>
   </si>
   <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
   </si>
   <si>
     <t>34,25%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
   </si>
   <si>
     <t>12,1%</t>
   </si>
   <si>
-    <t>37,36%</t>
+    <t>37,22%</t>
   </si>
   <si>
     <t>23,09%</t>
   </si>
   <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
   </si>
   <si>
     <t>69,37%</t>
   </si>
   <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
   </si>
   <si>
     <t>86,14%</t>
   </si>
   <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>77,91%</t>
   </si>
   <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
   </si>
   <si>
     <t>30,63%</t>
   </si>
   <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
   </si>
   <si>
     <t>13,86%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por úlcera de estómago en 2015 (Tasa respuesta: 0,69%)</t>
+    <t>Población que recibe medicación o terapia por úlcera de estómago en 2016 (Tasa respuesta: 0,69%)</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -348,6 +348,9 @@
     <t>58,7%</t>
   </si>
   <si>
+    <t>18,38%</t>
+  </si>
+  <si>
     <t>34,97%</t>
   </si>
   <si>
@@ -357,6 +360,9 @@
     <t>41,3%</t>
   </si>
   <si>
+    <t>81,62%</t>
+  </si>
+  <si>
     <t>38,94%</t>
   </si>
   <si>
@@ -366,7 +372,7 @@
     <t>58,21%</t>
   </si>
   <si>
-    <t>15,19%</t>
+    <t>13,35%</t>
   </si>
   <si>
     <t>61,06%</t>
@@ -378,7 +384,7 @@
     <t>41,79%</t>
   </si>
   <si>
-    <t>84,81%</t>
+    <t>86,65%</t>
   </si>
   <si>
     <t>31,98%</t>
@@ -387,16 +393,16 @@
     <t>87,21%</t>
   </si>
   <si>
-    <t>39,87%</t>
+    <t>48,65%</t>
   </si>
   <si>
     <t>71,87%</t>
   </si>
   <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
   </si>
   <si>
     <t>68,02%</t>
@@ -405,46 +411,46 @@
     <t>12,79%</t>
   </si>
   <si>
-    <t>60,13%</t>
+    <t>51,35%</t>
   </si>
   <si>
     <t>28,13%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
   </si>
   <si>
     <t>87,58%</t>
   </si>
   <si>
-    <t>59,64%</t>
+    <t>59,56%</t>
   </si>
   <si>
     <t>90,49%</t>
   </si>
   <si>
-    <t>69,95%</t>
+    <t>69,79%</t>
   </si>
   <si>
     <t>12,42%</t>
   </si>
   <si>
-    <t>40,36%</t>
+    <t>40,44%</t>
   </si>
   <si>
     <t>9,51%</t>
   </si>
   <si>
-    <t>30,05%</t>
+    <t>30,21%</t>
   </si>
   <si>
     <t>66,69%</t>
   </si>
   <si>
-    <t>33,38%</t>
+    <t>32,28%</t>
   </si>
   <si>
     <t>88,23%</t>
@@ -453,19 +459,19 @@
     <t>85,53%</t>
   </si>
   <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>79,73%</t>
   </si>
   <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
   </si>
   <si>
     <t>33,31%</t>
@@ -474,25 +480,25 @@
     <t>11,77%</t>
   </si>
   <si>
-    <t>66,62%</t>
+    <t>67,72%</t>
   </si>
   <si>
     <t>14,47%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
   </si>
   <si>
     <t>20,27%</t>
   </si>
   <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
   </si>
 </sst>
 </file>
@@ -904,7 +910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77C5EC7-3725-4954-8AE8-D6641C8C7302}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2C5C56-E786-44AC-847A-7619D69CC1B2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2117,7 +2123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0E0DAC-2AD6-4FB2-A2FD-A5C2118A2F3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E4C5B0-FF63-4036-AD84-D78D82AF4111}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2578,7 +2584,7 @@
         <v>102</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2596,7 +2602,7 @@
         <v>1049</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>14</v>
@@ -2611,7 +2617,7 @@
         <v>985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>14</v>
@@ -2626,13 +2632,13 @@
         <v>2034</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,7 +2706,7 @@
         <v>1125</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>14</v>
@@ -2715,7 +2721,7 @@
         <v>2688</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>14</v>
@@ -2730,10 +2736,10 @@
         <v>3813</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -2751,7 +2757,7 @@
         <v>1764</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>14</v>
@@ -2766,7 +2772,7 @@
         <v>974</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>14</v>
@@ -2781,13 +2787,13 @@
         <v>2738</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2861,7 @@
         <v>1066</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>14</v>
@@ -2870,10 +2876,10 @@
         <v>7561</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -2885,13 +2891,13 @@
         <v>8627</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,7 +2912,7 @@
         <v>2267</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>14</v>
@@ -2921,13 +2927,13 @@
         <v>1109</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -2936,13 +2942,13 @@
         <v>3376</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,10 +3031,10 @@
         <v>13314</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -3040,10 +3046,10 @@
         <v>17974</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -3076,13 +3082,13 @@
         <v>1889</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3091,13 +3097,13 @@
         <v>1889</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,13 +3171,13 @@
         <v>10169</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -3180,13 +3186,13 @@
         <v>29309</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -3195,13 +3201,13 @@
         <v>39479</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,13 +3222,13 @@
         <v>5080</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3231,13 +3237,13 @@
         <v>4957</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -3246,13 +3252,13 @@
         <v>10036</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
